--- a/algorithmicsCuestaMartinezMiguelUO258220/Marks.xlsx
+++ b/algorithmicsCuestaMartinezMiguelUO258220/Marks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Repos\alg-1-CuestaMartínezMiguel-UO258220\algorithmicsCuestaMartinezMiguelUO258220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E75B7A7-7716-45E0-B786-2E9A652A3DE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8FB725-1758-4F40-AB25-4EF1F9452F41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Student</t>
   </si>
@@ -231,6 +231,9 @@
       </rPr>
       <t>. TravelPath is not working as expected. The high-performance option is  the best one because that way, the CPU is more stable and does not have to switch between different modes, altering the results.</t>
     </r>
+  </si>
+  <si>
+    <t>Insertion is not working when the vector is inversely sorted. Good but you had to include the theoretical times (at least a couple of examples for each table) to compare the expirical results with the theoretical ones</t>
   </si>
 </sst>
 </file>
@@ -942,7 +945,7 @@
   <dimension ref="A1:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B12"/>
+      <selection activeCell="C5" sqref="C5:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1006,7 +1009,9 @@
       <c r="B4" s="4">
         <v>8</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4">
+        <v>8.5</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1015,7 +1020,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="8">
         <f>(B4*0.1+C4*0.1+D4*0.133+E4*0.133+F4*0.134+G4*0.2+H4*0.2)</f>
-        <v>0.8</v>
+        <v>1.6500000000000001</v>
       </c>
       <c r="K4" s="9">
         <f>IF(AND(J4&gt;=9,J4&lt;=10),7, IF(AND(J4&gt;=8,J4&lt;9),6.5, IF(AND(J4&gt;=7,J4&lt;8),6, IF(AND(J4&gt;=6,J4&lt;7),5.5, IF(AND(J4&gt;=5,J4&lt;6),5,4)))))</f>
@@ -1026,7 +1031,9 @@
       <c r="B5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>

--- a/algorithmicsCuestaMartinezMiguelUO258220/Marks.xlsx
+++ b/algorithmicsCuestaMartinezMiguelUO258220/Marks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Repos\alg-1-CuestaMartínezMiguel-UO258220\algorithmicsCuestaMartinezMiguelUO258220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8FB725-1758-4F40-AB25-4EF1F9452F41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E6932D-8D6D-4CC4-B311-F48B5CDB93CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5265" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marks" sheetId="4" r:id="rId1"/>
@@ -233,7 +233,7 @@
     </r>
   </si>
   <si>
-    <t>Insertion is not working when the vector is inversely sorted. Good but you had to include the theoretical times (at least a couple of examples for each table) to compare the expirical results with the theoretical ones</t>
+    <t>Insertion is not working when the vector is inversely sorted. Good but you had to include the theoretical times (at least a couple of examples for each table) to compare the expirical results with the theoretical ones…</t>
   </si>
 </sst>
 </file>

--- a/algorithmicsCuestaMartinezMiguelUO258220/Marks.xlsx
+++ b/algorithmicsCuestaMartinezMiguelUO258220/Marks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Repos\alg-1-CuestaMartínezMiguel-UO258220\algorithmicsCuestaMartinezMiguelUO258220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E6932D-8D6D-4CC4-B311-F48B5CDB93CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3833195B-311F-4D0C-B3C8-5FE574652516}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marks" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Student</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>Insertion is not working when the vector is inversely sorted. Good but you had to include the theoretical times (at least a couple of examples for each table) to compare the expirical results with the theoretical ones…</t>
+  </si>
+  <si>
+    <t>The D&amp;C version is not working as expected. Please, check the video of the last seminar (the implementation should be very similar to Mergesort). Second PDF is missing</t>
   </si>
 </sst>
 </file>
@@ -945,7 +948,7 @@
   <dimension ref="A1:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C12"/>
+      <selection activeCell="D5" sqref="D5:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1012,7 +1015,9 @@
       <c r="C4" s="4">
         <v>8.5</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4">
+        <v>5</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -1020,7 +1025,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="8">
         <f>(B4*0.1+C4*0.1+D4*0.133+E4*0.133+F4*0.134+G4*0.2+H4*0.2)</f>
-        <v>1.6500000000000001</v>
+        <v>2.3150000000000004</v>
       </c>
       <c r="K4" s="9">
         <f>IF(AND(J4&gt;=9,J4&lt;=10),7, IF(AND(J4&gt;=8,J4&lt;9),6.5, IF(AND(J4&gt;=7,J4&lt;8),6, IF(AND(J4&gt;=6,J4&lt;7),5.5, IF(AND(J4&gt;=5,J4&lt;6),5,4)))))</f>
@@ -1034,7 +1039,9 @@
       <c r="C5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>

--- a/algorithmicsCuestaMartinezMiguelUO258220/Marks.xlsx
+++ b/algorithmicsCuestaMartinezMiguelUO258220/Marks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Repos\alg-1-CuestaMartínezMiguel-UO258220\algorithmicsCuestaMartinezMiguelUO258220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3833195B-311F-4D0C-B3C8-5FE574652516}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228E5443-DF18-480F-A15B-F4DD2702E448}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Student</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>The D&amp;C version is not working as expected. Please, check the video of the last seminar (the implementation should be very similar to Mergesort). Second PDF is missing</t>
+  </si>
+  <si>
+    <t>Algorithms didn't give correct results and the expected complexity for greedy 2 and greedy 3 is O(nlogn) if you sort the elements beforehand or if you use a priority queue to have a greedy algorithm</t>
   </si>
 </sst>
 </file>
@@ -948,7 +951,7 @@
   <dimension ref="A1:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D12"/>
+      <selection activeCell="E5" sqref="E5:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1018,14 +1021,16 @@
       <c r="D4" s="4">
         <v>5</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4">
+        <v>2.5</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="8">
         <f>(B4*0.1+C4*0.1+D4*0.133+E4*0.133+F4*0.134+G4*0.2+H4*0.2)</f>
-        <v>2.3150000000000004</v>
+        <v>2.6475000000000004</v>
       </c>
       <c r="K4" s="9">
         <f>IF(AND(J4&gt;=9,J4&lt;=10),7, IF(AND(J4&gt;=8,J4&lt;9),6.5, IF(AND(J4&gt;=7,J4&lt;8),6, IF(AND(J4&gt;=6,J4&lt;7),5.5, IF(AND(J4&gt;=5,J4&lt;6),5,4)))))</f>
@@ -1042,7 +1047,9 @@
       <c r="D5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>

--- a/algorithmicsCuestaMartinezMiguelUO258220/Marks.xlsx
+++ b/algorithmicsCuestaMartinezMiguelUO258220/Marks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Repos\alg-1-CuestaMartínezMiguel-UO258220\algorithmicsCuestaMartinezMiguelUO258220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228E5443-DF18-480F-A15B-F4DD2702E448}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8362E114-CA27-4DA4-9AAB-242D942A52F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Student</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>Algorithms didn't give correct results and the expected complexity for greedy 2 and greedy 3 is O(nlogn) if you sort the elements beforehand or if you use a priority queue to have a greedy algorithm</t>
+  </si>
+  <si>
+    <t>No new files added</t>
   </si>
 </sst>
 </file>
@@ -951,7 +954,7 @@
   <dimension ref="A1:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E12"/>
+      <selection activeCell="F5" sqref="F5:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1024,7 +1027,9 @@
       <c r="E4" s="4">
         <v>2.5</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -1050,7 +1055,9 @@
       <c r="E5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>

--- a/algorithmicsCuestaMartinezMiguelUO258220/Marks.xlsx
+++ b/algorithmicsCuestaMartinezMiguelUO258220/Marks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Repos\alg-1-CuestaMartínezMiguel-UO258220\algorithmicsCuestaMartinezMiguelUO258220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8362E114-CA27-4DA4-9AAB-242D942A52F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FD00F3-2BA4-450D-9A86-944A6A211E8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Student</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>No new files added</t>
+  </si>
+  <si>
+    <t>Very good</t>
   </si>
 </sst>
 </file>
@@ -953,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1030,12 +1033,14 @@
       <c r="F4" s="4">
         <v>0</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4">
+        <v>10</v>
+      </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="8">
         <f>(B4*0.1+C4*0.1+D4*0.133+E4*0.133+F4*0.134+G4*0.2+H4*0.2)</f>
-        <v>2.6475000000000004</v>
+        <v>4.6475000000000009</v>
       </c>
       <c r="K4" s="9">
         <f>IF(AND(J4&gt;=9,J4&lt;=10),7, IF(AND(J4&gt;=8,J4&lt;9),6.5, IF(AND(J4&gt;=7,J4&lt;8),6, IF(AND(J4&gt;=6,J4&lt;7),5.5, IF(AND(J4&gt;=5,J4&lt;6),5,4)))))</f>
@@ -1058,7 +1063,9 @@
       <c r="F5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="10"/>
+      <c r="G5" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>

--- a/algorithmicsCuestaMartinezMiguelUO258220/Marks.xlsx
+++ b/algorithmicsCuestaMartinezMiguelUO258220/Marks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Repos\alg-1-CuestaMartínezMiguel-UO258220\algorithmicsCuestaMartinezMiguelUO258220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FD00F3-2BA4-450D-9A86-944A6A211E8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930E1BC5-E8D1-4B73-A872-C4A32B93678A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Student</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>Very good</t>
+  </si>
+  <si>
+    <t>Not implemented</t>
   </si>
 </sst>
 </file>
@@ -957,7 +960,7 @@
   <dimension ref="A1:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G12"/>
+      <selection activeCell="H5" sqref="H5:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1036,7 +1039,9 @@
       <c r="G4" s="4">
         <v>10</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
       <c r="I4" s="4"/>
       <c r="J4" s="8">
         <f>(B4*0.1+C4*0.1+D4*0.133+E4*0.133+F4*0.134+G4*0.2+H4*0.2)</f>
@@ -1066,7 +1071,9 @@
       <c r="G5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="10"/>
+      <c r="H5" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/algorithmicsCuestaMartinezMiguelUO258220/Marks.xlsx
+++ b/algorithmicsCuestaMartinezMiguelUO258220/Marks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Repos\alg-1-CuestaMartínezMiguel-UO258220\algorithmicsCuestaMartinezMiguelUO258220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930E1BC5-E8D1-4B73-A872-C4A32B93678A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073C7DD9-D60D-4971-84D8-2B46842ABB58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Student</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>Not implemented</t>
+  </si>
+  <si>
+    <t>Good + 1</t>
   </si>
 </sst>
 </file>
@@ -628,9 +631,7 @@
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Mark (scale 1-10)" dataDxfId="1">
       <calculatedColumnFormula>(B4*0.1+C4*0.1+D4*0.133+E4*0.133+F4*0.134+G4*0.2+H4*0.2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{0AFFE32D-0B1B-4797-AE55-76824BF92B40}" name="Final mark" dataDxfId="0">
-      <calculatedColumnFormula>IF(AND(J4&gt;=9,J4&lt;=10),7, IF(AND(J4&gt;=8,J4&lt;9),6.5, IF(AND(J4&gt;=7,J4&lt;8),6, IF(AND(J4&gt;=6,J4&lt;7),5.5, IF(AND(J4&gt;=5,J4&lt;6),5,4)))))</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="1" xr3:uid="{0AFFE32D-0B1B-4797-AE55-76824BF92B40}" name="Final mark" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -960,7 +961,7 @@
   <dimension ref="A1:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H12"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1042,14 +1043,15 @@
       <c r="H4" s="4">
         <v>0</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="J4" s="8">
         <f>(B4*0.1+C4*0.1+D4*0.133+E4*0.133+F4*0.134+G4*0.2+H4*0.2)</f>
         <v>4.6475000000000009</v>
       </c>
       <c r="K4" s="9">
-        <f>IF(AND(J4&gt;=9,J4&lt;=10),7, IF(AND(J4&gt;=8,J4&lt;9),6.5, IF(AND(J4&gt;=7,J4&lt;8),6, IF(AND(J4&gt;=6,J4&lt;7),5.5, IF(AND(J4&gt;=5,J4&lt;6),5,4)))))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
